--- a/Clasificador_NaiveBayes/Clasificador_NaiveBayes.xlsx
+++ b/Clasificador_NaiveBayes/Clasificador_NaiveBayes.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Galek\Desktop\Clase_SE\AmbosGrupos_SE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandrogarciaruiz/Dropbox/FIT-UAT-2025/DCC_SegundoSemestre/Clasificador_NaiveBayes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB7E11B-76BE-447F-B7DB-BA1EAA6B59A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6406084-1839-A043-B953-876A17F7A742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D6D03D2D-4EC2-4138-965E-A5F320404305}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="26240" windowHeight="14920" activeTab="2" xr2:uid="{D6D03D2D-4EC2-4138-965E-A5F320404305}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="69">
   <si>
     <t>NAIVE BAYES CLASSIFIER</t>
   </si>
@@ -219,6 +220,30 @@
   </si>
   <si>
     <t>Al caso de ejemplo se le asigna la clase SI debido a que es la que posee una mayor probabilidad de ocurrencia</t>
+  </si>
+  <si>
+    <t>CLASE</t>
+  </si>
+  <si>
+    <t>P( | Si)</t>
+  </si>
+  <si>
+    <t>P(| Si)</t>
+  </si>
+  <si>
+    <t>P( | No)</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -228,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,13 +289,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -300,15 +337,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -335,28 +366,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -377,9 +411,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -417,7 +451,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -523,7 +557,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -665,7 +699,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -675,34 +709,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984AB4E2-D331-4123-90D5-78ADE1CC23FD}">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:O71"/>
+    <sheetView topLeftCell="A30" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1"/>
-    <col min="2" max="2" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="1"/>
+    <col min="2" max="2" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.5546875" style="1"/>
+    <col min="9" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -710,307 +744,312 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>1</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>3</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>4</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>5</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>6</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>7</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>8</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>9</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
         <v>10</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <v>11</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
         <v>12</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
         <v>13</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
         <v>14</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1019,24 +1058,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B23" s="20" t="s">
+    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B25" s="13" t="s">
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>20</v>
       </c>
@@ -1044,16 +1083,16 @@
         <f>COUNTIF(F7:F20,"Si")</f>
         <v>9</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="7">
         <f>C26/I$21</f>
         <v>0.6428571428571429</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="13">
         <f>SUM(D26:D27)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>19</v>
       </c>
@@ -1061,25 +1100,25 @@
         <f>COUNTIF(F7:F20,"No")</f>
         <v>5</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="7">
         <f>C27/I$21</f>
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B30" s="11" t="s">
+    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B30" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="9" t="s">
         <v>5</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>9</v>
       </c>
@@ -1090,7 +1129,7 @@
         <f>COUNTIFS(B7:B20,"Soleado",F7:F20,"Si")</f>
         <v>2</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="6">
         <f>D31/$C$26</f>
         <v>0.22222222222222221</v>
       </c>
@@ -1104,12 +1143,12 @@
         <f>COUNTIFS(C7:C20,"Caliente",F7:F20,"Si")</f>
         <v>2</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="6">
         <f>I31/$C$26</f>
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
         <v>19</v>
       </c>
@@ -1117,7 +1156,7 @@
         <f>COUNTIFS(B7:B20,"Soleado",F7:F20,"No")</f>
         <v>3</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="6">
         <f>D32/$C$27</f>
         <v>0.6</v>
       </c>
@@ -1128,15 +1167,15 @@
         <f>COUNTIFS(C7:C20,"Caliente",F7:F20,"No")</f>
         <v>2</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="6">
         <f>I32/$C$27</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>21</v>
       </c>
@@ -1147,7 +1186,7 @@
         <f>COUNTIFS(B7:B20,"Nublado",F7:F20,"Si")</f>
         <v>4</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="6">
         <f>D34/$C$26</f>
         <v>0.44444444444444442</v>
       </c>
@@ -1161,12 +1200,12 @@
         <f>COUNTIFS(C7:C20,"Ambiente",F7:F20,"Si")</f>
         <v>4</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="6">
         <f>I34/$C$26</f>
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C35" s="2" t="s">
         <v>19</v>
       </c>
@@ -1174,7 +1213,7 @@
         <f>COUNTIFS(B7:B20,"Nublado",F7:F20,"No")</f>
         <v>0</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="6">
         <f>D35/$C$27</f>
         <v>0</v>
       </c>
@@ -1185,15 +1224,15 @@
         <f>COUNTIFS(C7:C20,"Ambiente",F7:F20,"No")</f>
         <v>2</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J35" s="6">
         <f>I35/$C$27</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>11</v>
       </c>
@@ -1204,7 +1243,7 @@
         <f>COUNTIFS(B7:B20,"Lluvioso",F7:F20,"Si")</f>
         <v>3</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="6">
         <f>D37/$C$26</f>
         <v>0.33333333333333331</v>
       </c>
@@ -1218,12 +1257,12 @@
         <f>COUNTIFS(C7:C20,"Frío",F7:F20,"Si")</f>
         <v>3</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J37" s="6">
         <f>I37/$C$26</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C38" s="2" t="s">
         <v>19</v>
       </c>
@@ -1231,7 +1270,7 @@
         <f>COUNTIFS(B7:B20,"Lluvioso",F7:F20,"No")</f>
         <v>2</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="6">
         <f>D38/$C$27</f>
         <v>0.4</v>
       </c>
@@ -1242,28 +1281,28 @@
         <f>COUNTIFS(C7:C20,"Frío",F7:F20,"No")</f>
         <v>1</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J38" s="6">
         <f>I38/$C$27</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="2:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="B41" s="13" t="s">
+    <row r="41" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B41" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="11" t="s">
         <v>7</v>
       </c>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>15</v>
       </c>
@@ -1274,7 +1313,7 @@
         <f>COUNTIFS(D7:D20,"Alta",F7:F20,"Si")</f>
         <v>3</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="6">
         <f>D42/$C$26</f>
         <v>0.33333333333333331</v>
       </c>
@@ -1288,12 +1327,12 @@
         <f>COUNTIFS(E7:E20,"Débil",F7:F20,"Si")</f>
         <v>6</v>
       </c>
-      <c r="J42" s="8">
+      <c r="J42" s="6">
         <f>I42/$C$26</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C43" s="2" t="s">
         <v>19</v>
       </c>
@@ -1301,7 +1340,7 @@
         <f>COUNTIFS(D7:D20,"Alta",F7:F20,"No")</f>
         <v>4</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="6">
         <f>D43/$C$27</f>
         <v>0.8</v>
       </c>
@@ -1312,16 +1351,16 @@
         <f>COUNTIFS(E7:E20,"Débil",F7:F20,"No")</f>
         <v>2</v>
       </c>
-      <c r="J43" s="8">
+      <c r="J43" s="6">
         <f>I43/$C$27</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>16</v>
       </c>
@@ -1332,7 +1371,7 @@
         <f>COUNTIFS(D7:D20,"Normal",F7:F20,"Si")</f>
         <v>6</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="6">
         <f>D45/$C$26</f>
         <v>0.66666666666666663</v>
       </c>
@@ -1346,12 +1385,12 @@
         <f>COUNTIFS(E7:E20,"Fuerte",F7:F20,"Si")</f>
         <v>3</v>
       </c>
-      <c r="J45" s="8">
+      <c r="J45" s="6">
         <f>I45/$C$26</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C46" s="2" t="s">
         <v>19</v>
       </c>
@@ -1359,7 +1398,7 @@
         <f>COUNTIFS(D7:D20,"Normal",F7:F20,"No")</f>
         <v>1</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="6">
         <f>D46/$C$27</f>
         <v>0.2</v>
       </c>
@@ -1370,28 +1409,28 @@
         <f>COUNTIFS(E7:E20,"Fuerte",F7:F20,"No")</f>
         <v>3</v>
       </c>
-      <c r="J46" s="8">
+      <c r="J46" s="6">
         <f>I46/$C$27</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="50" spans="2:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B50" s="20" t="s">
+    <row r="50" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B50" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="19"/>
+      <c r="D52" s="16"/>
       <c r="E52" s="3" t="s">
         <v>9</v>
       </c>
@@ -1399,207 +1438,196 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C53" s="19" t="s">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C53" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="19"/>
+      <c r="D53" s="16"/>
       <c r="E53" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C54" s="19" t="s">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C54" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="19"/>
+      <c r="D54" s="16"/>
       <c r="E54" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C55" s="19" t="s">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C55" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D55" s="19"/>
+      <c r="D55" s="16"/>
       <c r="E55" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="2:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="B59" s="13" t="s">
+    <row r="59" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B59" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17" t="s">
+      <c r="F59" s="14"/>
+      <c r="G59" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17" t="s">
+      <c r="H59" s="14"/>
+      <c r="I59" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17" t="s">
+      <c r="J59" s="14"/>
+      <c r="K59" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L59" s="17"/>
-    </row>
-    <row r="60" spans="2:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C60" s="10" t="s">
+      <c r="L59" s="14"/>
+    </row>
+    <row r="60" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="C60" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="6">
         <f>D26</f>
         <v>0.6428571428571429</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="18">
         <f>E31</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="F60" s="17"/>
-      <c r="G60" s="16">
+      <c r="F60" s="14"/>
+      <c r="G60" s="18">
         <f>J37</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H60" s="17"/>
-      <c r="I60" s="16">
+      <c r="H60" s="14"/>
+      <c r="I60" s="18">
         <f>E42</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J60" s="17"/>
-      <c r="K60" s="16">
+      <c r="J60" s="14"/>
+      <c r="K60" s="18">
         <f>J45</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L60" s="17"/>
+      <c r="L60" s="14"/>
       <c r="M60" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N60" s="9">
+      <c r="N60" s="7">
         <f>D60*E60*G60*I60*K60</f>
         <v>5.2910052910052907E-3</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D62" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="17" t="s">
+      <c r="E62" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17" t="s">
+      <c r="F62" s="14"/>
+      <c r="G62" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17" t="s">
+      <c r="H62" s="14"/>
+      <c r="I62" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17" t="s">
+      <c r="J62" s="14"/>
+      <c r="K62" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="L62" s="17"/>
-    </row>
-    <row r="63" spans="2:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C63" s="10" t="s">
+      <c r="L62" s="14"/>
+    </row>
+    <row r="63" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="C63" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="6">
         <f>D27</f>
         <v>0.35714285714285715</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E63" s="18">
         <f>E32</f>
         <v>0.6</v>
       </c>
-      <c r="F63" s="17"/>
-      <c r="G63" s="16">
+      <c r="F63" s="14"/>
+      <c r="G63" s="18">
         <f>J38</f>
         <v>0.2</v>
       </c>
-      <c r="H63" s="17"/>
-      <c r="I63" s="16">
+      <c r="H63" s="14"/>
+      <c r="I63" s="18">
         <f>E43</f>
         <v>0.8</v>
       </c>
-      <c r="J63" s="17"/>
-      <c r="K63" s="16">
+      <c r="J63" s="14"/>
+      <c r="K63" s="18">
         <f>J46</f>
         <v>0.6</v>
       </c>
-      <c r="L63" s="17"/>
+      <c r="L63" s="14"/>
       <c r="M63" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N63" s="9">
+      <c r="N63" s="7">
         <f>D63*E63*G63*I63*K63</f>
         <v>2.057142857142857E-2</v>
       </c>
     </row>
-    <row r="65" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:14" x14ac:dyDescent="0.2">
       <c r="M65" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N65" s="8">
+      <c r="N65" s="6">
         <f>N60+N63</f>
         <v>2.5862433862433861E-2</v>
       </c>
     </row>
-    <row r="67" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C67" s="18" t="s">
+    <row r="67" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C67" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D67" s="18"/>
-      <c r="E67" s="8">
+      <c r="D67" s="17"/>
+      <c r="E67" s="6">
         <f>N60/N65</f>
         <v>0.20458265139116202</v>
       </c>
     </row>
-    <row r="68" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:14" x14ac:dyDescent="0.2">
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="3:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="C69" s="18" t="s">
+    <row r="69" spans="3:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="C69" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D69" s="18"/>
-      <c r="E69" s="15">
+      <c r="D69" s="17"/>
+      <c r="E69" s="12">
         <f>N63/N65</f>
         <v>0.79541734860883795</v>
       </c>
-      <c r="G69" s="12" t="s">
+      <c r="G69" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D71" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E71" s="6">
         <f>E67+E69</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
     <mergeCell ref="C69:D69"/>
     <mergeCell ref="E60:F60"/>
     <mergeCell ref="G60:H60"/>
@@ -1614,6 +1642,17 @@
     <mergeCell ref="I63:J63"/>
     <mergeCell ref="K63:L63"/>
     <mergeCell ref="C67:D67"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1624,23 +1663,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E820E571-FCA7-42A0-B419-2D58EFF04519}">
   <dimension ref="B3:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="2:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1651,7 +1690,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1667,15 +1706,15 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="1"/>
@@ -1691,13 +1730,13 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="1"/>
@@ -1711,13 +1750,13 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="1"/>
@@ -1731,13 +1770,13 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="1"/>
@@ -1751,7 +1790,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1767,7 +1806,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1783,7 +1822,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1799,73 +1838,73 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="2:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="B12" s="13" t="s">
+    <row r="12" spans="2:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17" t="s">
+      <c r="H12" s="14"/>
+      <c r="I12" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17" t="s">
+      <c r="J12" s="14"/>
+      <c r="K12" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="17"/>
+      <c r="L12" s="14"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" ht="18" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="6">
         <f>Hoja1!D26</f>
         <v>0.6428571428571429</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="18">
         <f>Hoja1!E34</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="16">
+      <c r="F13" s="14"/>
+      <c r="G13" s="18">
         <f>Hoja1!J37</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="16">
+      <c r="H13" s="14"/>
+      <c r="I13" s="18">
         <f>Hoja1!E45</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="16">
+      <c r="J13" s="14"/>
+      <c r="K13" s="18">
         <f>Hoja1!J45</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="4" t="s">
+      <c r="L13" s="14"/>
+      <c r="M13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="7">
         <f>D13*E13*G13*I13*K13</f>
         <v>2.1164021164021163E-2</v>
       </c>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1881,71 +1920,71 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17" t="s">
+      <c r="H15" s="14"/>
+      <c r="I15" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17" t="s">
+      <c r="J15" s="14"/>
+      <c r="K15" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="L15" s="17"/>
+      <c r="L15" s="14"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="6">
         <f>Hoja1!D27</f>
         <v>0.35714285714285715</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="18">
         <f>Hoja1!E35</f>
         <v>0</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="16">
+      <c r="F16" s="14"/>
+      <c r="G16" s="18">
         <f>Hoja1!J38</f>
         <v>0.2</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="16">
+      <c r="H16" s="14"/>
+      <c r="I16" s="18">
         <f>Hoja1!E46</f>
         <v>0.2</v>
       </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="16">
+      <c r="J16" s="14"/>
+      <c r="K16" s="18">
         <f>Hoja1!J46</f>
         <v>0.6</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="4" t="s">
+      <c r="L16" s="14"/>
+      <c r="M16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="7">
         <f>D16*E16*G16*I16*K16</f>
         <v>0</v>
       </c>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1961,7 +2000,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1973,16 +2012,16 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N18" s="6">
         <f>N13+N16</f>
         <v>2.1164021164021163E-2</v>
       </c>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1998,13 +2037,13 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="14">
+      <c r="D20" s="17"/>
+      <c r="E20" s="6">
         <f>N13/N18</f>
         <v>1</v>
       </c>
@@ -2019,11 +2058,11 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="4"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -2035,18 +2074,18 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" ht="18" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="15">
+      <c r="D22" s="17"/>
+      <c r="E22" s="12">
         <f>N16/N18</f>
         <v>0</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="10" t="s">
         <v>60</v>
       </c>
       <c r="H22" s="1"/>
@@ -2058,7 +2097,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2074,13 +2113,520 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="6">
+        <f>E20+E22</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA0376B-9906-DA41-AE11-3F8B20B76E79}">
+  <dimension ref="B3:O24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="2:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="2:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="2:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+      <c r="C6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="2:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+      <c r="C7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+      <c r="C8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="2:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="2:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="2:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" s="14"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="2:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+      <c r="C13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="19">
+        <f>Hoja1!D26</f>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="18">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="18">
+        <f>Hoja1!E45</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="18">
+        <f>Hoja1!J45</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L13" s="14"/>
+      <c r="M13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="7">
+        <f>D13*E13*G13*I13*K13</f>
+        <v>1.0579894285714285E-2</v>
+      </c>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="2:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="2:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" s="14"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="2:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="C16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="19">
+        <f>Hoja1!D27</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="18">
+        <f>Hoja1!E46</f>
+        <v>0.2</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="18">
+        <f>Hoja1!J46</f>
+        <v>0.6</v>
+      </c>
+      <c r="L16" s="14"/>
+      <c r="M16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="7">
+        <f>D16*E16*G16*I16*K16</f>
+        <v>6.8571428571428594E-3</v>
+      </c>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="2:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="2:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" s="6">
+        <f>N13+N16</f>
+        <v>1.7437037142857145E-2</v>
+      </c>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="2:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="2:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+      <c r="C20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="7">
+        <f>N13/N18</f>
+        <v>0.60674839418164572</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="2:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="2:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+      <c r="C22" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="20">
+        <f>N16/N18</f>
+        <v>0.39325160581835422</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="2:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="2:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="6">
         <f>E20+E22</f>
         <v>1</v>
       </c>
